--- a/docs/画面項目定義書/mo_backup_create.xlsx
+++ b/docs/画面項目定義書/mo_backup_create.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27846C85-A803-489E-B6EF-96EBDDE2B17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7ACBA6-4520-4E60-B2B5-86CFA63E63F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="340" windowWidth="19200" windowHeight="9860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>日本工学院</t>
   </si>
@@ -57,158 +57,7 @@
     <t>処理</t>
   </si>
   <si>
-    <t>ページタイトル</t>
-  </si>
-  <si>
-    <t>表示</t>
-  </si>
-  <si>
     <t>ボタン</t>
-  </si>
-  <si>
-    <t>×ボタン</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>プルダウンメニュー</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ユーザーオブジェクトより</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>テキストボックス</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>仮想マシン管理ダッシュボードへ遷移</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>作成ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>作成</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>バックアップ作成</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧タイトル「バックアップ名」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧「バックアップ名」</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>バックアップ名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>例：backup-2025-xx-xx</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧タイトル「バックアップ対象の仮想マシン」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧「バックアップ対象の仮想マシン」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>バックアップ対象の仮想マシン</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>バックアップ対象のストレージ</t>
-    <rPh sb="6" eb="8">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧タイトル「バックアップ対象のストレージ」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧「バックアップ対象のストレージ」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>バックアップ作成画面</t>
@@ -225,58 +74,70 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>作成済み仮想マシンを取得し、一覧で表示</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイズ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>認識済みストレージを取得し、一覧で表示</t>
-    <rPh sb="0" eb="2">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>バックアップ作成が完了/仮想マシン管理ダッシュボードへ遷移</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+    <t>×ボタン（モーダル閉じる）</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>押下でモーダルを閉じ、バックアップ管理画面へ遷移（キャンセル処理）</t>
+  </si>
+  <si>
+    <t>バックアップ名</t>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>文字数制限あり</t>
+  </si>
+  <si>
+    <t>作成するバックアップに任意の名称を付ける</t>
+  </si>
+  <si>
+    <t>仮想マシン名</t>
+  </si>
+  <si>
+    <t>表示のみ</t>
+  </si>
+  <si>
+    <t>仮想マシンエンティティより</t>
+  </si>
+  <si>
+    <t>バックアップ対象の仮想マシン名を表示（編集不可）</t>
+  </si>
+  <si>
+    <t>ストレージ名</t>
+  </si>
+  <si>
+    <t>表示のみ（繰り返し）</t>
+  </si>
+  <si>
+    <t>対象仮想マシンに紐づくストレージ名を一覧表示（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>ストレージ容量</t>
+  </si>
+  <si>
+    <t>数値＋単位</t>
+  </si>
+  <si>
+    <t>対象ストレージの容量を表示（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>ストレージ種別</t>
+  </si>
+  <si>
+    <t>対象ストレージの種別を表示（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>作成ボタン</t>
+  </si>
+  <si>
+    <t>押下でバックアップ作成処理を実行</t>
   </si>
 </sst>
 </file>
@@ -1123,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1137,7 +998,7 @@
     <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1009,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1157,7 +1018,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.5">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1166,7 +1027,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1175,7 +1036,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
+    <row r="5" spans="1:7" ht="13.25">
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1188,20 +1049,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.25">
       <c r="A6" s="35" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.25">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1210,7 +1071,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.25">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1233,184 +1094,191 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>11</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="24">
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.25">
       <c r="A10" s="24">
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13">
+    </row>
+    <row r="11" spans="1:7" ht="24.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="28" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.5">
       <c r="A12" s="24">
         <v>4</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" ht="24">
+      <c r="G12" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.25">
       <c r="A13" s="21">
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" ht="24">
+        <v>23</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24.5">
       <c r="A14" s="24">
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" ht="24">
+      <c r="G14" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.25">
       <c r="A15" s="21">
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="27"/>
-      <c r="E15" s="33" t="s">
-        <v>28</v>
-      </c>
+      <c r="E15" s="33"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" ht="24">
+      <c r="G15" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.25">
       <c r="A16" s="24">
         <v>8</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="24">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.25">
       <c r="A17" s="21">
         <v>9</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>11</v>
-      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="28" t="s">
-        <v>29</v>
-      </c>
+      <c r="E17" s="28"/>
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" ht="24">
+    <row r="18" spans="1:7" ht="13.25">
       <c r="A18" s="24">
         <v>10</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="13">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.25">
       <c r="A19" s="21">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="13">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.25">
       <c r="A20" s="24">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="13">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.25">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1421,7 +1289,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.25">
       <c r="A22" s="24">
         <v>14</v>
       </c>
@@ -1432,7 +1300,7 @@
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.25">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1443,21 +1311,29 @@
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.25">
       <c r="A24" s="24">
         <v>16</v>
       </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.25">
       <c r="A25" s="21">
         <v>17</v>
       </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.25">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
@@ -1466,7 +1342,7 @@
       <c r="F26" s="29"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.25">
       <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
@@ -1475,7 +1351,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.25">
       <c r="A28" s="24"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
@@ -1484,7 +1360,7 @@
       <c r="F28" s="29"/>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.25">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>

--- a/docs/画面項目定義書/mo_backup_create.xlsx
+++ b/docs/画面項目定義書/mo_backup_create.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7ACBA6-4520-4E60-B2B5-86CFA63E63F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E996A2-E68F-4D84-951F-4B84DB51E10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="340" windowWidth="19200" windowHeight="9860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>日本工学院</t>
   </si>
@@ -80,9 +80,6 @@
     <t>×</t>
   </si>
   <si>
-    <t>押下でモーダルを閉じ、バックアップ管理画面へ遷移（キャンセル処理）</t>
-  </si>
-  <si>
     <t>バックアップ名</t>
   </si>
   <si>
@@ -95,49 +92,46 @@
     <t>文字数制限あり</t>
   </si>
   <si>
-    <t>作成するバックアップに任意の名称を付ける</t>
-  </si>
-  <si>
-    <t>仮想マシン名</t>
-  </si>
-  <si>
-    <t>表示のみ</t>
-  </si>
-  <si>
     <t>仮想マシンエンティティより</t>
   </si>
   <si>
-    <t>バックアップ対象の仮想マシン名を表示（編集不可）</t>
-  </si>
-  <si>
-    <t>ストレージ名</t>
-  </si>
-  <si>
-    <t>表示のみ（繰り返し）</t>
-  </si>
-  <si>
-    <t>対象仮想マシンに紐づくストレージ名を一覧表示（繰り返し表示）</t>
-  </si>
-  <si>
-    <t>ストレージ容量</t>
-  </si>
-  <si>
-    <t>数値＋単位</t>
-  </si>
-  <si>
-    <t>対象ストレージの容量を表示（繰り返し表示）</t>
-  </si>
-  <si>
-    <t>ストレージ種別</t>
-  </si>
-  <si>
-    <t>対象ストレージの種別を表示（繰り返し表示）</t>
-  </si>
-  <si>
     <t>作成ボタン</t>
   </si>
   <si>
     <t>押下でバックアップ作成処理を実行</t>
+  </si>
+  <si>
+    <t>プルダウン</t>
+  </si>
+  <si>
+    <t>選択必須</t>
+  </si>
+  <si>
+    <t>押下でバックアップ作成画面を閉じる（遷移または非表示）</t>
+  </si>
+  <si>
+    <t>バックアップの名称を入力</t>
+  </si>
+  <si>
+    <t>バックアップ対象の仮想マシン</t>
+  </si>
+  <si>
+    <t>対象となる仮想マシンを選択</t>
+  </si>
+  <si>
+    <t>バックアップ対象のストレージ</t>
+  </si>
+  <si>
+    <t>対象となる仮想ストレージを選択</t>
+  </si>
+  <si>
+    <t>サイドバー</t>
+  </si>
+  <si>
+    <t>リンク集</t>
+  </si>
+  <si>
+    <t>ナビゲーションメニュー（※本画面では未実装）</t>
   </si>
 </sst>
 </file>
@@ -984,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1110,7 +1104,7 @@
       </c>
       <c r="F9" s="29"/>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.25">
@@ -1118,58 +1112,66 @@
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>18</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.25">
       <c r="A11" s="21">
         <v>3</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="E11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="29"/>
       <c r="G11" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24.5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.25">
       <c r="A12" s="24">
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="27"/>
+        <v>22</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="E12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="29"/>
       <c r="G12" s="30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.25">
@@ -1177,36 +1179,30 @@
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D13" s="27"/>
-      <c r="E13" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>29</v>
-      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="24.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.25">
       <c r="A14" s="24">
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" s="27"/>
-      <c r="E14" s="28" t="s">
-        <v>23</v>
-      </c>
+      <c r="E14" s="28"/>
       <c r="F14" s="29"/>
       <c r="G14" s="30" t="s">
         <v>32</v>
@@ -1216,18 +1212,12 @@
       <c r="A15" s="21">
         <v>7</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>10</v>
-      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="27"/>
       <c r="E15" s="33"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="30" t="s">
-        <v>34</v>
-      </c>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7" ht="13.25">
       <c r="A16" s="24">

--- a/docs/画面項目定義書/mo_backup_create.xlsx
+++ b/docs/画面項目定義書/mo_backup_create.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E996A2-E68F-4D84-951F-4B84DB51E10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022A5C92-A25D-4554-98E4-589A581EF7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,11 @@
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>日本工学院</t>
   </si>
@@ -74,64 +69,58 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>×ボタン（モーダル閉じる）</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>バックアップ名</t>
-  </si>
-  <si>
-    <t>テキストボックス</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>文字数制限あり</t>
-  </si>
-  <si>
-    <t>仮想マシンエンティティより</t>
-  </si>
-  <si>
-    <t>作成ボタン</t>
-  </si>
-  <si>
-    <t>押下でバックアップ作成処理を実行</t>
-  </si>
-  <si>
-    <t>プルダウン</t>
-  </si>
-  <si>
-    <t>選択必須</t>
-  </si>
-  <si>
-    <t>押下でバックアップ作成画面を閉じる（遷移または非表示）</t>
-  </si>
-  <si>
-    <t>バックアップの名称を入力</t>
-  </si>
-  <si>
-    <t>バックアップ対象の仮想マシン</t>
-  </si>
-  <si>
-    <t>対象となる仮想マシンを選択</t>
-  </si>
-  <si>
-    <t>バックアップ対象のストレージ</t>
-  </si>
-  <si>
-    <t>対象となる仮想ストレージを選択</t>
-  </si>
-  <si>
-    <t>サイドバー</t>
-  </si>
-  <si>
-    <t>リンク集</t>
-  </si>
-  <si>
-    <t>ナビゲーションメニュー（※本画面では未実装）</t>
+    <t>スナップショット名</t>
+  </si>
+  <si>
+    <t>表示のみ（テーブル）</t>
+  </si>
+  <si>
+    <t>スナップショットエンティティより</t>
+  </si>
+  <si>
+    <t>スナップショットの識別名を表示（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>作成日</t>
+  </si>
+  <si>
+    <t>日付形式</t>
+  </si>
+  <si>
+    <t>スナップショットの作成日時を表示（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>対象仮想マシン</t>
+  </si>
+  <si>
+    <t>対象となる仮想マシン名を表示（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>状態</t>
+  </si>
+  <si>
+    <t>スナップショットの保存状態を表示（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>操作（復元ボタン）</t>
+  </si>
+  <si>
+    <t>ボタン（ドロップダウン）</t>
+  </si>
+  <si>
+    <t>押下で該当スナップショットを復元する処理を実行（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>操作（削除ボタン）</t>
+  </si>
+  <si>
+    <t>押下で該当スナップショットを削除する処理を実行（繰り返し表示）</t>
+  </si>
+  <si>
+    <t>スナップショット作成ボタン</t>
+  </si>
+  <si>
+    <t>押下でスナップショット作成画面へ遷移</t>
   </si>
 </sst>
 </file>
@@ -141,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +191,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -430,11 +426,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -520,16 +517,15 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{84DDD8C8-2919-4FFA-881F-DA0726EFB9C4}"/>
     <cellStyle name="文字" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -979,7 +975,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1031,10 +1027,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1044,10 +1040,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
@@ -1092,132 +1088,130 @@
       <c r="A9" s="21">
         <v>1</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28" t="s">
+      <c r="C9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" t="s">
-        <v>24</v>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.25">
       <c r="A10" s="24">
         <v>2</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>25</v>
+      <c r="G10" s="35" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.25">
       <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>27</v>
+      <c r="B11" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.25">
       <c r="A12" s="24">
         <v>4</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="29" t="s">
+      <c r="C12" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35" t="s">
         <v>23</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.25">
       <c r="A13" s="21">
         <v>5</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30" t="s">
-        <v>21</v>
+      <c r="B13" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.25">
       <c r="A14" s="24">
         <v>6</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30" t="s">
-        <v>32</v>
+      <c r="B14" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.25">
       <c r="A15" s="21">
         <v>7</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="13.25">
       <c r="A16" s="24">

--- a/docs/画面項目定義書/mo_backup_create.xlsx
+++ b/docs/画面項目定義書/mo_backup_create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022A5C92-A25D-4554-98E4-589A581EF7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004E1FAC-7011-4210-9C82-951F2610CCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>日本工学院</t>
   </si>
@@ -69,58 +69,70 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>スナップショット名</t>
-  </si>
-  <si>
-    <t>表示のみ（テーブル）</t>
-  </si>
-  <si>
-    <t>スナップショットエンティティより</t>
-  </si>
-  <si>
-    <t>スナップショットの識別名を表示（繰り返し表示）</t>
-  </si>
-  <si>
-    <t>作成日</t>
-  </si>
-  <si>
-    <t>日付形式</t>
-  </si>
-  <si>
-    <t>スナップショットの作成日時を表示（繰り返し表示）</t>
-  </si>
-  <si>
-    <t>対象仮想マシン</t>
-  </si>
-  <si>
-    <t>対象となる仮想マシン名を表示（繰り返し表示）</t>
-  </si>
-  <si>
-    <t>状態</t>
-  </si>
-  <si>
-    <t>スナップショットの保存状態を表示（繰り返し表示）</t>
-  </si>
-  <si>
-    <t>操作（復元ボタン）</t>
-  </si>
-  <si>
-    <t>ボタン（ドロップダウン）</t>
-  </si>
-  <si>
-    <t>押下で該当スナップショットを復元する処理を実行（繰り返し表示）</t>
-  </si>
-  <si>
-    <t>操作（削除ボタン）</t>
-  </si>
-  <si>
-    <t>押下で該当スナップショットを削除する処理を実行（繰り返し表示）</t>
-  </si>
-  <si>
-    <t>スナップショット作成ボタン</t>
-  </si>
-  <si>
-    <t>押下でスナップショット作成画面へ遷移</t>
+    <t>バックアップ名</t>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>backup-2025-07-02</t>
+  </si>
+  <si>
+    <t>未入力チェック、文字数チェック</t>
+  </si>
+  <si>
+    <t>バックアップ名を保存パラメータに設定</t>
+  </si>
+  <si>
+    <t>仮想マシン</t>
+  </si>
+  <si>
+    <t>プルダウン</t>
+  </si>
+  <si>
+    <t>vm-kamata01</t>
+  </si>
+  <si>
+    <t>選択チェック</t>
+  </si>
+  <si>
+    <t>選択されたVM情報を取得</t>
+  </si>
+  <si>
+    <t>仮想ストレージ</t>
+  </si>
+  <si>
+    <t>プルダウン（動的）</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>選択チェック、VMに紐づくストレージ確認</t>
+  </si>
+  <si>
+    <t>選択されたVMに紐づくストレージ一覧から選択</t>
+  </si>
+  <si>
+    <t>作成ボタン</t>
+  </si>
+  <si>
+    <t>作成</t>
+  </si>
+  <si>
+    <t>バックアップ作成処理を開始</t>
+  </si>
+  <si>
+    <t>閉じるボタン（×）</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>画面を閉じる（UI装飾）</t>
   </si>
 </sst>
 </file>
@@ -433,7 +445,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,7 +533,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -974,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1084,142 +1095,142 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.25">
+    <row r="9" spans="1:7" ht="24.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35" t="s">
+      <c r="E9" s="28" t="s">
         <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.25">
       <c r="A10" s="24">
         <v>2</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35" t="s">
+      <c r="B10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.25">
+      <c r="E10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35" t="s">
+      <c r="B11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35" t="s">
-        <v>21</v>
+      <c r="E11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.25">
       <c r="A12" s="24">
         <v>4</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35" t="s">
-        <v>23</v>
+      <c r="B12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.25">
       <c r="A13" s="21">
         <v>5</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35" t="s">
-        <v>26</v>
+      <c r="B13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.25">
       <c r="A14" s="24">
         <v>6</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35" t="s">
-        <v>28</v>
-      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:7" ht="13.25">
       <c r="A15" s="21">
         <v>7</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35" t="s">
-        <v>30</v>
-      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7" ht="13.25">
       <c r="A16" s="24">
         <v>8</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="13.25">
       <c r="A17" s="21">
@@ -1236,9 +1247,12 @@
       <c r="A18" s="24">
         <v>10</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="13.25">
       <c r="A19" s="21">
